--- a/biology/Zoologie/Deccanometrus_xanthopus/Deccanometrus_xanthopus.xlsx
+++ b/biology/Zoologie/Deccanometrus_xanthopus/Deccanometrus_xanthopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deccanometrus xanthopus est une espèce de scorpions de la famille des Scorpionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre au Maharashtra et au Telangana.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre au Maharashtra et au Telangana.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 74 mm[2].
-Deccanometrus xanthopus mesure de 60 à 80 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 74 mm.
+Deccanometrus xanthopus mesure de 60 à 80 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus xanthopus par Pocock en 1897. Elle est placée dans le genre Heterometrus par Kraepelin en 1899[4] puis dans le genre Deccanometrus par Prendini et Loria en 2020[1] qui dans le même temps placent Heterometrus telanganaensis[5] en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Palamnaeus xanthopus par Pocock en 1897. Elle est placée dans le genre Heterometrus par Kraepelin en 1899 puis dans le genre Deccanometrus par Prendini et Loria en 2020 qui dans le même temps placent Heterometrus telanganaensis en synonymie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1897 : « Descriptions of some new species of scorpions from India. » Journal of the Bombay Natural History Society, vol. 11, p. 102–117 (texte intégral).</t>
         </is>
